--- a/reports/DTEK2040_assessment_summary.xlsx
+++ b/reports/DTEK2040_assessment_summary.xlsx
@@ -495,7 +495,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>oppilas10</t>
+          <t>oppilas13</t>
         </is>
       </c>
       <c r="B4">

--- a/reports/DTEK2040_assessment_summary.xlsx
+++ b/reports/DTEK2040_assessment_summary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>PART 0</t>
+          <t>Exercise 0</t>
         </is>
       </c>
     </row>
@@ -434,9 +434,59 @@
           <t>HTML</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Anchor element</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Table</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>List</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Image</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Form with input</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>CSS</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Hover</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>List and table styles</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Specificity</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Selectors</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Position and size</t>
         </is>
       </c>
     </row>
@@ -446,61 +496,555 @@
           <t>TOTAL</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>E0-T1-1</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Anchor element</t>
+          <t>E0-T1-2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Table</t>
+          <t>E0-T1-3</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>List</t>
+          <t>E0-T1-4</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Image</t>
+          <t>E0-T1-5</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Form with input</t>
+          <t>E0-T1-6</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>E0-T2-1</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Hover</t>
+          <t>E0-T2-2</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Specificity</t>
+          <t>E0-T2-3</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Selectors</t>
+          <t>E0-T2-4</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Position and size</t>
+          <t>E0-T2-5</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>E0-T2-6</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>oppilas13</t>
-        </is>
-      </c>
-      <c r="B4">
-        <f>SUMMA(D4:AB4)</f>
-        <v/>
+          <t>oppilas 10</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>oppilas 11</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>oppilas 13</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1.833333333333333</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>oppilas 4</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>oppilas 5</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>oppilas 6</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1.833333333333333</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>oppilas 8</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/reports/DTEK2040_assessment_summary.xlsx
+++ b/reports/DTEK2040_assessment_summary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.666666666666667</v>
+        <v>2</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -608,7 +608,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -630,11 +630,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>oppilas 11</t>
+          <t>oppilas 13</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -673,12 +673,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -700,11 +700,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>oppilas 13</t>
+          <t>oppilas 14</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.833333333333333</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -718,63 +718,63 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
           <t>FAIL</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>oppilas 4</t>
+          <t>oppilas 17</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -828,27 +828,27 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>oppilas 5</t>
+          <t>oppilas 18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.5</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -910,15 +910,15 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>oppilas 6</t>
+          <t>oppilas 22</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.833333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -933,32 +933,32 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
           <t>FAIL</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>PASS</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -980,68 +980,278 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>oppilas 23</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.833333333333333</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>oppilas 4</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>oppilas 6</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1.833333333333333</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>oppilas 8</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
+      <c r="B13" t="n">
+        <v>1.833333333333333</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
